--- a/北里道路_入札候補案件.xlsx
+++ b/北里道路_入札候補案件.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\kumamotobid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\exst\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81221F5-0BDA-48F5-A8F9-7E04357372F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80FC536-3D6E-4CE6-895F-5E84687A8C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD14"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
